--- a/biology/Histoire de la zoologie et de la botanique/James_Arthur_Peters/James_Arthur_Peters.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Arthur_Peters/James_Arthur_Peters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Arthur Peters est un herpétologiste américain, né le 13 juillet 1922 à Durant en Iowa et mort le 18 décembre 1972 à Washington D.C..
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est médecin et le jeune James découvre la nature et plus particulièrement les serpents lorsque sa famille s’installe à Greenup, dans le sud de l’Illinois, grâce à un enfant du voisinage, Philip Wayne Smith (1921-1986), futur zoologiste. Il se passionne tant pour ces animaux qu’il participe à 17 ans à la première réunion de la Société des ichtyologistes et des herpétologistes américains.
 Sa scolarité est interrompue par la Seconde Guerre mondiale qu’il passe comme radio dans l’armée de l’air en Asie du sud-est et en Afrique du Nord, ce qui lui permet d’étudier l’herpétofaune locale. Après guerre, il reprend ses études à l’université du Michigan où il obtient successivement son Bachelor of Sciences en 1948, son Master of Sciences en 1950 et son Ph. D. en 1952 ; sa thèse porte sur la sous-famille des Dipsadinae. Son travail de recherche est supervisé par Norman Edouard Hartweg (1904-1964).
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Classic papers in genetics (Prentice-Hall, Englewood Cliffs, 1959).
 The snakes of Ecuador; check list and key (The Museum, Cambridge, 1960).
